--- a/Examples/FullAutomationExamples/Example1/Report_Template.xlsx
+++ b/Examples/FullAutomationExamples/Example1/Report_Template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,13 +12,13 @@
   </sheets>
   <calcPr calcId="122211" calcMode="manual"/>
   <pivotCaches>
-    <pivotCache cacheId="24" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
   <si>
     <t>Region</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>Case id</t>
-  </si>
-  <si>
-    <t>(All)</t>
   </si>
   <si>
     <t>Row Labels</t>
@@ -2965,8 +2962,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -2990,7 +2987,7 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField showAll="0">
       <items count="4">
         <item x="1"/>
         <item x="2"/>
@@ -3034,9 +3031,6 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="9" hier="-1"/>
-  </pageFields>
   <dataFields count="1">
     <dataField name="Count of Case id" fld="6" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
@@ -3337,103 +3331,93 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="11">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
+      <c r="A3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="11">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B4" s="11">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" s="11">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B6" s="11">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B7" s="11">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B8" s="11">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B9" s="11">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B10" s="11">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="11">
         <v>220</v>
       </c>
     </row>
@@ -3524,7 +3508,7 @@
         <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3556,7 +3540,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3588,7 +3572,7 @@
         <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3620,7 +3604,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3652,7 +3636,7 @@
         <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3684,7 +3668,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3716,7 +3700,7 @@
         <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3748,7 +3732,7 @@
         <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3780,7 +3764,7 @@
         <v>17</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3812,7 +3796,7 @@
         <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
